--- a/pabi_account_report/xlsx_template/xlsx_report_sla_purchase.xlsx
+++ b/pabi_account_report/xlsx_template/xlsx_report_sla_purchase.xlsx
@@ -58,7 +58,7 @@
     <t xml:space="preserve">Transfer Type</t>
   </si>
   <si>
-    <t xml:space="preserve">Value Date (PV)</t>
+    <t xml:space="preserve">PV Value Date</t>
   </si>
   <si>
     <t xml:space="preserve">PV Total Amount</t>

--- a/pabi_account_report/xlsx_template/xlsx_report_sla_purchase.xlsx
+++ b/pabi_account_report/xlsx_template/xlsx_report_sla_purchase.xlsx
@@ -180,7 +180,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -216,7 +216,7 @@
   <dimension ref="A1:L753"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="C10" activeCellId="0" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/pabi_account_report/xlsx_template/xlsx_report_sla_purchase.xlsx
+++ b/pabi_account_report/xlsx_template/xlsx_report_sla_purchase.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="SLA Purchase Report" sheetId="1" state="visible" r:id="rId2"/>
@@ -200,7 +200,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -269,6 +269,10 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -306,31 +310,27 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="1:12"/>
+  <dimension ref="A1:AMJ12"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="K1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="N5" activeCellId="0" sqref="N5"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="19.3112244897959"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="23.0408163265306"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="2" width="21.2397959183673"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="24.234693877551"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="25.5561224489796"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="2" width="22.4336734693878"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="3" width="23.280612244898"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="28.5561224489796"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="2" width="23.3979591836735"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="4" width="19.8010204081633"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="19.3112244897959"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="18.8367346938776"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="5" width="18.8367346938776"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="3" width="15.8367346938776"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="6" width="15.8367346938776"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="5" width="15.8367346938776"/>
-    <col collapsed="false" hidden="false" max="1025" min="17" style="5" width="11.5204081632653"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="1" width="23.61"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="23.61"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="1" width="23.61"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="2" width="23.61"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="3" width="23.61"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="8" style="2" width="23.61"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="4" width="23.61"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="11" style="1" width="23.61"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="5" width="23.61"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="3" width="23.61"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="6" width="23.61"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="5" width="23.61"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="17" style="5" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6510,8 +6510,7 @@
         <v>8</v>
       </c>
       <c r="B7" s="13"/>
-      <c r="C7" s="14"/>
-      <c r="D7" s="13"/>
+      <c r="C7" s="17"/>
       <c r="E7" s="0"/>
       <c r="F7" s="8"/>
       <c r="G7" s="9"/>
@@ -11643,60 +11642,60 @@
       <c r="AMI11" s="0"/>
       <c r="AMJ11" s="0"/>
     </row>
-    <row r="12" s="21" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="17" t="s">
+    <row r="12" s="22" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="17" t="s">
+      <c r="B12" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="18" t="s">
+      <c r="C12" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="D12" s="17" t="s">
+      <c r="D12" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="E12" s="17" t="s">
+      <c r="E12" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="F12" s="18" t="s">
+      <c r="F12" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="G12" s="19" t="s">
+      <c r="G12" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="H12" s="18" t="s">
+      <c r="H12" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="I12" s="18" t="s">
+      <c r="I12" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="J12" s="20" t="s">
+      <c r="J12" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="K12" s="17" t="s">
+      <c r="K12" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="L12" s="17" t="s">
+      <c r="L12" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="M12" s="17" t="s">
+      <c r="M12" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="N12" s="19" t="s">
+      <c r="N12" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="O12" s="17" t="s">
+      <c r="O12" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="P12" s="17" t="s">
+      <c r="P12" s="18" t="s">
         <v>27</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
